--- a/biology/Botanique/Paul_de_Lavenne_de_Choulot/Paul_de_Lavenne_de_Choulot.xlsx
+++ b/biology/Botanique/Paul_de_Lavenne_de_Choulot/Paul_de_Lavenne_de_Choulot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul de Lavenne, né à Nevers le 31 janvier 1794 et mort le 4 avril 1864, est un paysagiste français du XIXe siècle ayant dessiné plus de 300 parcs en France et en Europe. Il est fait comte de Choulot en 1824.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le comte Paul de Lavenne de Choulot[1] naquit à Nevers le 31 janvier 1794 (12 pluviôse an III). Ses parents s'appelaient de Lavenne, d'une famille originaire de Bretagne. La devise des de Lavenne est « AD ALTA COR ALTUM[2] » : « Le cœur haut pour les causes nobles » ; ses armoiries sont formées par deux lions surmontés chacun d'une étoile, portant un cœur rouge sang.
-Paul de Lavenne reçoit en 1824 le titre de comte de Choulot[3] du roi Louis XVIII, dont il était garde du corps avec rang de lieutenant de cavalerie.
-Il épouse le 20 janvier 1817 Elisabeth-Anne-Marie de Chabannes, fille de Jean-Frédéric, marquis de Chabannes-Curton et de la Palice[4](1762-1836) et d'Annette Van Lennep[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le comte Paul de Lavenne de Choulot naquit à Nevers le 31 janvier 1794 (12 pluviôse an III). Ses parents s'appelaient de Lavenne, d'une famille originaire de Bretagne. La devise des de Lavenne est « AD ALTA COR ALTUM » : « Le cœur haut pour les causes nobles » ; ses armoiries sont formées par deux lions surmontés chacun d'une étoile, portant un cœur rouge sang.
+Paul de Lavenne reçoit en 1824 le titre de comte de Choulot du roi Louis XVIII, dont il était garde du corps avec rang de lieutenant de cavalerie.
+Il épouse le 20 janvier 1817 Elisabeth-Anne-Marie de Chabannes, fille de Jean-Frédéric, marquis de Chabannes-Curton et de la Palice(1762-1836) et d'Annette Van Lennep.
 Paul de Choulot fut 1er gentilhomme de la Chambre, capitaine général des chasses du prince de Condé, duc de Bourbon, et fut le gouverneur du château de Chantilly[réf. nécessaire].
-« Paolo », comme il est appelé par Chateaubriand dans les Mémoires d'Outre-Tombe, est un « vrai personnage de roman » selon le magazine Touche à tout qui publiait régulièrement un feuilleton illustré sur sa vie (tiré du livre Le Pavé du roi). Le comte Paul de Choulot, ce grand chasseur infatigable et polyglotte confirmé, auteur des Mémoires et voyages du duc d'Enghien[6] avec une notice sur sa vie et sa mort... était un ardent défenseur du légitimisme.
+« Paolo », comme il est appelé par Chateaubriand dans les Mémoires d'Outre-Tombe, est un « vrai personnage de roman » selon le magazine Touche à tout qui publiait régulièrement un feuilleton illustré sur sa vie (tiré du livre Le Pavé du roi). Le comte Paul de Choulot, ce grand chasseur infatigable et polyglotte confirmé, auteur des Mémoires et voyages du duc d'Enghien avec une notice sur sa vie et sa mort... était un ardent défenseur du légitimisme.
 Après la chute de la monarchie, il se met au service de la duchesse de Berry, mère du comte de Chambord, prétendant au trône, alors âgé de 10 ans. Il parcourut toutes les routes de l'Europe, de Saint-Pétersbourg jusqu'à Palerme et à Venise. Le comte de Choulot, dont le fils étudiait à côté du « comte de Chambord » à l'université de Prague, avait été chargé par la duchesse de Berry de la mission délicate de marier son fils, le prétendant au trône « Henri V », avec la grande-duchesse Olga, fille du tsar de Russie.
 À plus de 50 ans, il se retira sur ses terres au château de Mimont, près de Pougues-les-Eaux, et entama une nouvelle carrière d'architecte paysagiste. Il écrivit en 1846 son ouvrage L'Art des jardins dans lequel il répertorie la liste des parcs de châtelains légitimistes. Il meurt en 1864 à l'âge de 70 ans.
 </t>
@@ -548,7 +562,9 @@
           <t>La rose et le lys</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avait-il un lien de sang avec Rosalie (=la rose et le lys), l'Enfant de la Vendée que la duchesse de Berry mit au monde dans la prison de Blaye, le 10 mai 1833. « L'Enfant du Secret » comme l'avait appelé Châteaubriand, baptisée à Rome par le pape Grégoire XVI, décédée à l'âge de six mois le 9 novembre 1833 à Palerme, et enterrée au couvent des Capucins de la ville, portant le nom de Lucchesi-Palli, fille de la duchesse de Berry et demi-sœur du prétendant au trône « Henri V, comte de Chambord », duc de Bordeaux ? On ne le saura peut-être jamais...
 Le Secret de Marie-Caroline ne serait-il pas symbolisé par cette mèche de cheveux que la duchesse a offerte au comte de Choulot, venu lui rendre visite dans sa prison de Blaye où le roi des Français (son oncle par alliance) Louis-Philippe d'Orléans, l'avait enfermée, lui, Paolo, le fidèle des fidèles qui dépensa pour elle toute sa fortune à sa cause au péril de sa vie ? En offrant ce « Cadeau Royal » à son chevalier, elle lui dit : « Mon cher Comte, voici les seuls Joyaux de la Couronne que je puis vous offrir ! »...
@@ -581,7 +597,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mémoires et voyages du duc d'Enghien. Précédés d'une notice sur sa vie et sa mort, Moulins, P.-A. Desrosiers, 1841 Lire en ligne sur Gallica.
 Introduction à l'art des Jardins (1846)
@@ -614,9 +632,11 @@
           <t>Parcs dessinés par Paul Lavenne de Choulot</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D'après la liste publiée en annexe de l'Art des Jardins, 1863 ; des précisions sur les parcs encore existants aujourd'hui sont ajoutées notamment grâce au suivi de l'inventaire par les Jardins de France[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après la liste publiée en annexe de l'Art des Jardins, 1863 ; des précisions sur les parcs encore existants aujourd'hui sont ajoutées notamment grâce au suivi de l'inventaire par les Jardins de France.
 En France
 - Ain
 Maillat, M. le comte de Broissia
@@ -660,7 +680,7 @@
 - Charente-Inférieure (Charente Maritime)
 La Grève, M. BETHMONT 
 le Ramet, M. le vicomte Anatole LEMERCIER 
-Lussac, M. GAILLARD, parc toujours entretenu[8]
+Lussac, M. GAILLARD, parc toujours entretenu
 Mirambeau, M. le comte DUCHATEL 
 - Cher
 Jussy, M. de BENGY, le parc a peu changé depuis la réalisation 
@@ -673,7 +693,7 @@
 le Veuillin, M. Paulin du VERNE 
 Preuil, 	M. Adrien AUGIER 
 Séruelles, 	M. le baron AUGIER 
-Thaumiers,   	M. le comte de BONNEVAL, classé[9], parc dessiné en 1857 et encore visible avec ses fabriques
+Thaumiers,   	M. le comte de BONNEVAL, classé, parc dessiné en 1857 et encore visible avec ses fabriques
 Turly, 	M. le baron de LAITRE 
 Vaufreland, M. le baron de VAUFRELAND 
 Villecomte, M. Ferdinand de BENGY-PUYVALLÉE
